--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_ForwardSwapQuotes.xlsx
@@ -13,9 +13,6 @@
     <sheet name="6M" sheetId="26" r:id="rId4"/>
     <sheet name="1Y" sheetId="24" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FamilyName">'General Settings'!$D$15</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="70">
   <si>
     <t>Currency</t>
   </si>
@@ -243,6 +240,9 @@
   <si>
     <t>3E</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +256,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -777,22 +777,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1087,7 +1071,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
@@ -1099,13 +1083,13 @@
     <col min="8" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="58" t="s">
         <v>35</v>
@@ -1114,14 +1098,14 @@
       <c r="D2" s="59"/>
       <c r="E2" s="60"/>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -1130,7 +1114,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9" t="s">
@@ -1141,7 +1125,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
@@ -1152,7 +1136,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
@@ -1163,19 +1147,18 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
@@ -1186,15 +1169,15 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="58" t="s">
         <v>34</v>
       </c>
@@ -1202,13 +1185,13 @@
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
         <v>0</v>
@@ -1218,7 +1201,7 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
         <v>54</v>
@@ -1228,7 +1211,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
         <v>56</v>
@@ -1238,7 +1221,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="9" t="s">
         <v>9</v>
@@ -1248,7 +1231,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="9" t="s">
         <v>10</v>
@@ -1258,7 +1241,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="9" t="s">
         <v>11</v>
@@ -1268,7 +1251,7 @@
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:5" ht="12" thickBot="1">
+    <row r="20" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1303,7 +1286,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="21" bestFit="1" customWidth="1"/>
@@ -1326,7 +1309,7 @@
     <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1341,7 +1324,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:20" ht="22.5">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1361,12 +1344,12 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;"_Fwd"&amp;$E$3&amp;IF(H3=0,,"_Spr"&amp;$F3&amp;$G3)&amp;".xml"</f>
         <v>EUR_020_SwAB6E_Fwd1w.xml</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="27" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <v>#NUM!</v>
       </c>
       <c r="L2" s="28" t="str">
-        <f>_xll.ohRangeRetrieveError(K2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
       <c r="M2" s="36"/>
@@ -1377,7 +1360,7 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="29" t="s">
         <v>14</v>
@@ -1435,7 +1418,7 @@
       <c r="S3" s="50"/>
       <c r="T3" s="51"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="29" t="s">
         <v>15</v>
@@ -1496,7 +1479,7 @@
       <c r="S4" s="50"/>
       <c r="T4" s="51"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="29" t="s">
         <v>16</v>
@@ -1557,7 +1540,7 @@
       <c r="S5" s="50"/>
       <c r="T5" s="51"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="29" t="s">
         <v>17</v>
@@ -1618,7 +1601,7 @@
       <c r="S6" s="50"/>
       <c r="T6" s="51"/>
     </row>
-    <row r="7" spans="1:20" ht="12" thickBot="1">
+    <row r="7" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="29" t="s">
         <v>18</v>
@@ -1679,7 +1662,7 @@
       <c r="S7" s="53"/>
       <c r="T7" s="54"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="29" t="s">
         <v>19</v>
@@ -1726,7 +1709,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="29" t="s">
         <v>20</v>
@@ -1773,7 +1756,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="29" t="s">
         <v>21</v>
@@ -1820,7 +1803,7 @@
       </c>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="29" t="s">
         <v>22</v>
@@ -1867,7 +1850,7 @@
       </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="29" t="s">
         <v>23</v>
@@ -1914,7 +1897,7 @@
       </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -1961,7 +1944,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="29" t="s">
         <v>25</v>
@@ -2008,7 +1991,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="29" t="s">
         <v>39</v>
@@ -2055,7 +2038,7 @@
       </c>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="29" t="s">
         <v>40</v>
@@ -2102,7 +2085,7 @@
       </c>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="29" t="s">
         <v>26</v>
@@ -2149,7 +2132,7 @@
       </c>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="29" t="s">
         <v>41</v>
@@ -2196,7 +2179,7 @@
       </c>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="29" t="s">
         <v>42</v>
@@ -2243,7 +2226,7 @@
       </c>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="29" t="s">
         <v>43</v>
@@ -2290,7 +2273,7 @@
       </c>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="29" t="s">
         <v>44</v>
@@ -2337,7 +2320,7 @@
       </c>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="29" t="s">
         <v>27</v>
@@ -2384,7 +2367,7 @@
       </c>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="29" t="s">
         <v>45</v>
@@ -2431,7 +2414,7 @@
       </c>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="29" t="s">
         <v>46</v>
@@ -2478,7 +2461,7 @@
       </c>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="29" t="s">
         <v>47</v>
@@ -2525,7 +2508,7 @@
       </c>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="29" t="s">
         <v>48</v>
@@ -2572,7 +2555,7 @@
       </c>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
         <v>28</v>
@@ -2619,7 +2602,7 @@
       </c>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="29" t="s">
         <v>49</v>
@@ -2666,7 +2649,7 @@
       </c>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="29" t="s">
         <v>50</v>
@@ -2713,7 +2696,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="29" t="s">
         <v>51</v>
@@ -2760,7 +2743,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="29" t="s">
         <v>52</v>
@@ -2807,7 +2790,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="29" t="s">
         <v>29</v>
@@ -2854,7 +2837,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="29" t="s">
         <v>30</v>
@@ -2901,7 +2884,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="29" t="s">
         <v>31</v>
@@ -2948,7 +2931,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="29" t="s">
         <v>32</v>
@@ -2995,7 +2978,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="29" t="s">
         <v>33</v>
@@ -3042,7 +3025,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="12" thickBot="1">
+    <row r="37" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -3074,7 +3057,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
@@ -3096,7 +3079,7 @@
     <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -3111,7 +3094,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:20" ht="22.5">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -3137,7 +3120,7 @@
       </c>
       <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>ohObjectSave - Object list is empty</v>
+        <v/>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -3147,7 +3130,7 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="44" t="s">
         <v>14</v>
@@ -3205,7 +3188,7 @@
       <c r="S3" s="50"/>
       <c r="T3" s="51"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -3263,7 +3246,7 @@
       <c r="S4" s="50"/>
       <c r="T4" s="51"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="44" t="s">
         <v>16</v>
@@ -3321,7 +3304,7 @@
       <c r="S5" s="50"/>
       <c r="T5" s="51"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="44" t="s">
         <v>17</v>
@@ -3379,7 +3362,7 @@
       <c r="S6" s="50"/>
       <c r="T6" s="51"/>
     </row>
-    <row r="7" spans="1:20" ht="12" thickBot="1">
+    <row r="7" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="44" t="s">
         <v>18</v>
@@ -3437,7 +3420,7 @@
       <c r="S7" s="53"/>
       <c r="T7" s="54"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="44" t="s">
         <v>19</v>
@@ -3481,7 +3464,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="44" t="s">
         <v>20</v>
@@ -3525,7 +3508,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="44" t="s">
         <v>21</v>
@@ -3569,7 +3552,7 @@
       </c>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="44" t="s">
         <v>22</v>
@@ -3613,7 +3596,7 @@
       </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="44" t="s">
         <v>23</v>
@@ -3657,7 +3640,7 @@
       </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="44" t="s">
         <v>24</v>
@@ -3701,7 +3684,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="44" t="s">
         <v>25</v>
@@ -3745,7 +3728,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="44" t="s">
         <v>39</v>
@@ -3789,7 +3772,7 @@
       </c>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="44" t="s">
         <v>40</v>
@@ -3833,7 +3816,7 @@
       </c>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="44" t="s">
         <v>26</v>
@@ -3877,7 +3860,7 @@
       </c>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="44" t="s">
         <v>41</v>
@@ -3921,7 +3904,7 @@
       </c>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="44" t="s">
         <v>42</v>
@@ -3965,7 +3948,7 @@
       </c>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="44" t="s">
         <v>43</v>
@@ -4009,7 +3992,7 @@
       </c>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="44" t="s">
         <v>44</v>
@@ -4053,7 +4036,7 @@
       </c>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="44" t="s">
         <v>27</v>
@@ -4097,7 +4080,7 @@
       </c>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="44" t="s">
         <v>45</v>
@@ -4141,7 +4124,7 @@
       </c>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="44" t="s">
         <v>46</v>
@@ -4185,7 +4168,7 @@
       </c>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="44" t="s">
         <v>47</v>
@@ -4229,7 +4212,7 @@
       </c>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="44" t="s">
         <v>48</v>
@@ -4273,7 +4256,7 @@
       </c>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="44" t="s">
         <v>28</v>
@@ -4317,7 +4300,7 @@
       </c>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="44" t="s">
         <v>49</v>
@@ -4361,7 +4344,7 @@
       </c>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="44" t="s">
         <v>50</v>
@@ -4405,7 +4388,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="44" t="s">
         <v>51</v>
@@ -4449,7 +4432,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="44" t="s">
         <v>52</v>
@@ -4493,7 +4476,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="44" t="s">
         <v>29</v>
@@ -4537,7 +4520,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="44" t="s">
         <v>30</v>
@@ -4581,7 +4564,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="44" t="s">
         <v>31</v>
@@ -4625,7 +4608,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="44" t="s">
         <v>32</v>
@@ -4669,7 +4652,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="44" t="s">
         <v>33</v>
@@ -4713,7 +4696,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="12" thickBot="1">
+    <row r="37" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -4745,7 +4728,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
@@ -4767,7 +4750,7 @@
     <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4782,7 +4765,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:20" ht="22.5">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4808,7 +4791,7 @@
       </c>
       <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>ohObjectSave - Object list is empty</v>
+        <v/>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4818,7 +4801,7 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="44" t="s">
         <v>14</v>
@@ -4873,7 +4856,7 @@
       <c r="S3" s="50"/>
       <c r="T3" s="51"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -4932,7 +4915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="44" t="s">
         <v>16</v>
@@ -4987,7 +4970,7 @@
       <c r="S5" s="50"/>
       <c r="T5" s="51"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="44" t="s">
         <v>17</v>
@@ -5042,7 +5025,7 @@
       <c r="S6" s="50"/>
       <c r="T6" s="51"/>
     </row>
-    <row r="7" spans="1:20" ht="12" thickBot="1">
+    <row r="7" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="44" t="s">
         <v>18</v>
@@ -5101,7 +5084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="44" t="s">
         <v>19</v>
@@ -5142,7 +5125,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="44" t="s">
         <v>20</v>
@@ -5183,7 +5166,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="44" t="s">
         <v>21</v>
@@ -5224,7 +5207,7 @@
       </c>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="44" t="s">
         <v>22</v>
@@ -5265,7 +5248,7 @@
       </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="44" t="s">
         <v>23</v>
@@ -5306,7 +5289,7 @@
       </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="44" t="s">
         <v>24</v>
@@ -5347,7 +5330,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="44" t="s">
         <v>25</v>
@@ -5388,7 +5371,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="44" t="s">
         <v>39</v>
@@ -5429,7 +5412,7 @@
       </c>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="44" t="s">
         <v>40</v>
@@ -5470,7 +5453,7 @@
       </c>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="44" t="s">
         <v>26</v>
@@ -5511,7 +5494,7 @@
       </c>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="44" t="s">
         <v>41</v>
@@ -5552,7 +5535,7 @@
       </c>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="44" t="s">
         <v>42</v>
@@ -5593,7 +5576,7 @@
       </c>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="44" t="s">
         <v>43</v>
@@ -5634,7 +5617,7 @@
       </c>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="44" t="s">
         <v>44</v>
@@ -5675,7 +5658,7 @@
       </c>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="44" t="s">
         <v>27</v>
@@ -5716,7 +5699,7 @@
       </c>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="44" t="s">
         <v>45</v>
@@ -5757,7 +5740,7 @@
       </c>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="44" t="s">
         <v>46</v>
@@ -5798,7 +5781,7 @@
       </c>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="44" t="s">
         <v>47</v>
@@ -5839,7 +5822,7 @@
       </c>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="44" t="s">
         <v>48</v>
@@ -5880,7 +5863,7 @@
       </c>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="44" t="s">
         <v>28</v>
@@ -5921,7 +5904,7 @@
       </c>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="44" t="s">
         <v>49</v>
@@ -5962,7 +5945,7 @@
       </c>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="44" t="s">
         <v>50</v>
@@ -6003,7 +5986,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="44" t="s">
         <v>51</v>
@@ -6044,7 +6027,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="44" t="s">
         <v>52</v>
@@ -6085,7 +6068,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="44" t="s">
         <v>29</v>
@@ -6126,7 +6109,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="44" t="s">
         <v>30</v>
@@ -6167,7 +6150,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="44" t="s">
         <v>31</v>
@@ -6208,7 +6191,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="44" t="s">
         <v>32</v>
@@ -6249,7 +6232,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="44" t="s">
         <v>33</v>
@@ -6290,7 +6273,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="12" thickBot="1">
+    <row r="37" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -6322,7 +6305,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="20" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
@@ -6345,7 +6328,7 @@
     <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -6360,7 +6343,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:20" ht="22.5">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -6380,12 +6363,12 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;"_"&amp;"Fwd"&amp;$E$3&amp;IF(H3=0,,"_Spr"&amp;$F3&amp;$G3)&amp;".xml"</f>
         <v>EUR_020_SwAB6E_Fwd1w_Spr6E12E.xml</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <v>#NUM!</v>
       </c>
       <c r="L2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(K2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
       <c r="M2" s="36"/>
@@ -6396,7 +6379,7 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="44" t="s">
         <v>14</v>
@@ -6458,7 +6441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -6523,7 +6506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="44" t="s">
         <v>16</v>
@@ -6588,7 +6571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="44" t="s">
         <v>17</v>
@@ -6653,7 +6636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="12" thickBot="1">
+    <row r="7" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="44" t="s">
         <v>18</v>
@@ -6718,7 +6701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="44" t="s">
         <v>19</v>
@@ -6765,7 +6748,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="44" t="s">
         <v>20</v>
@@ -6812,7 +6795,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="44" t="s">
         <v>21</v>
@@ -6859,7 +6842,7 @@
       </c>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="44" t="s">
         <v>22</v>
@@ -6906,7 +6889,7 @@
       </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="44" t="s">
         <v>23</v>
@@ -6953,7 +6936,7 @@
       </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="44" t="s">
         <v>24</v>
@@ -7000,7 +6983,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="44" t="s">
         <v>25</v>
@@ -7047,7 +7030,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="44" t="s">
         <v>39</v>
@@ -7094,7 +7077,7 @@
       </c>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="44" t="s">
         <v>40</v>
@@ -7141,7 +7124,7 @@
       </c>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="44" t="s">
         <v>26</v>
@@ -7188,7 +7171,7 @@
       </c>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="44" t="s">
         <v>41</v>
@@ -7235,7 +7218,7 @@
       </c>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="44" t="s">
         <v>42</v>
@@ -7282,7 +7265,7 @@
       </c>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="44" t="s">
         <v>43</v>
@@ -7329,7 +7312,7 @@
       </c>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="44" t="s">
         <v>44</v>
@@ -7376,7 +7359,7 @@
       </c>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="44" t="s">
         <v>27</v>
@@ -7423,7 +7406,7 @@
       </c>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="44" t="s">
         <v>45</v>
@@ -7470,7 +7453,7 @@
       </c>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="44" t="s">
         <v>46</v>
@@ -7517,7 +7500,7 @@
       </c>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="44" t="s">
         <v>47</v>
@@ -7564,7 +7547,7 @@
       </c>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="44" t="s">
         <v>48</v>
@@ -7611,7 +7594,7 @@
       </c>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="44" t="s">
         <v>28</v>
@@ -7658,7 +7641,7 @@
       </c>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="44" t="s">
         <v>49</v>
@@ -7705,7 +7688,7 @@
       </c>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="44" t="s">
         <v>50</v>
@@ -7752,7 +7735,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="44" t="s">
         <v>51</v>
@@ -7799,7 +7782,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="44" t="s">
         <v>52</v>
@@ -7846,7 +7829,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="44" t="s">
         <v>29</v>
@@ -7893,7 +7876,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="44" t="s">
         <v>30</v>
@@ -7940,7 +7923,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="44" t="s">
         <v>31</v>
@@ -7987,7 +7970,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="44" t="s">
         <v>32</v>
@@ -8034,7 +8017,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="44" t="s">
         <v>33</v>
@@ -8081,7 +8064,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="12" thickBot="1">
+    <row r="37" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_ForwardSwapQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="69">
   <si>
     <t>Currency</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>3E</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1150,9 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>69</v>
+      <c r="D8" s="12" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1345,12 +1343,12 @@
         <v>EUR_020_SwAB6E_Fwd1w.xml</v>
       </c>
       <c r="K2" s="27" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="28" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="28" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -3115,12 +3113,12 @@
         <v>EUR_020_SwAB6E_Fwd1w.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4786,12 +4784,12 @@
         <v>EUR_020_SwAB3E_Fwd1w_Spr3E6E.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -6364,12 +6362,12 @@
         <v>EUR_020_SwAB6E_Fwd1w_Spr6E12E.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
